--- a/Projects/CCPH/Data/Template.xlsx
+++ b/Projects/CCPH/Data/Template.xlsx
@@ -11,7 +11,7 @@
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$H$16</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$I$16</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="37">
   <si>
     <t xml:space="preserve">kpi_group</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">entity3</t>
   </si>
   <si>
+    <t xml:space="preserve">entity4</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_empty</t>
   </si>
   <si>
@@ -61,7 +64,10 @@
     <t xml:space="preserve">CPURITY_OWN_MANF_COOLER_SCENES_WHOLE_STORE</t>
   </si>
   <si>
-    <t xml:space="preserve">2-door Cooler, Two-door Cooler, One-door Cooler, CCV</t>
+    <t xml:space="preserve">Two-door Cooler, One-door Cooler, CCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store</t>
   </si>
   <si>
     <t xml:space="preserve">manufacturer</t>
@@ -82,9 +88,6 @@
     <t xml:space="preserve">CPURITY_OWN_MANF_COOLER_SCENE_TYPE</t>
   </si>
   <si>
-    <t xml:space="preserve">template</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPURITY_ALL_MANF_COOLER_SCENE_TYPE</t>
   </si>
   <si>
@@ -104,6 +107,33 @@
   </si>
   <si>
     <t xml:space="preserve">CPURITY_ALL_MANF_ALL_BRAND_COOLER_ALL_SKU_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELF_CUTIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_OWN_MANF_COOLER_SCENES_WHOLE_STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_ALL_MANF_COOLER_SCENES_WHOLE_STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_OWN_MANF_COOLER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_ALL_MANF_COOLER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_OWN_MANF_ALL_BRAND_COOLER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_ALL_MANF_ALL_BRAND_COOLER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_OWN_MANF_ALL_BRAND_ALL_SKU_COOLER_SCENE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUTIL_ALL_MANF_ALL_BRAND_COOLER_ALL_SKU_SCENE_TYPE</t>
   </si>
 </sst>
 </file>
@@ -152,7 +182,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +193,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -200,7 +236,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,6 +263,34 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -258,6 +322,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -266,30 +390,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5:E5"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.5060728744939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.3765182186235"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="6.64777327935223"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9109311740891"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="16.6801619433198"/>
-    <col collapsed="false" hidden="false" max="1013" min="11" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="4" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.8016194331984"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.96356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="6.64777327935223"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.9109311740891"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="16.6801619433198"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1023" min="1015" style="4" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -317,232 +443,498 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4" t="s">
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="4" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4" t="s">
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="11"/>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
